--- a/references/questionnaire.xlsx
+++ b/references/questionnaire.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20403"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/david/Documents/CodeProjects/pa-leadership-survey/references/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kloepper\Desktop\ECIS2024\Studie mit Uwe\Material\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E3ADFCB-EDCA-734E-9556-47701F4DC0AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{811D820B-5FEE-4412-9AE7-FD097ED6EF4D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14860" yWindow="8300" windowWidth="28040" windowHeight="17440" xr2:uid="{69505A7C-33EF-F142-86DA-553B11D7999A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7755" xr2:uid="{D2DBED8B-F273-5F4E-8D6A-40C4D6D3B0F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,128 +20,537 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="173">
+  <si>
+    <t>I complained to the airline company to constructively discuss the problem.</t>
+  </si>
+  <si>
+    <t>I complained to the airline company to find an acceptable solution for both parties.</t>
+  </si>
+  <si>
+    <t>I complained to the airline company to work with its representatives to solve the problem.</t>
+  </si>
+  <si>
+    <t>I complained to the consumer agency to ask about the right approach to deal with the airline.</t>
+  </si>
+  <si>
+    <t>I complained to the consumer agency to solicit its expertise about my Issues with the airline.</t>
+  </si>
+  <si>
+    <t>I complained to the consumer agency so it could advise me on the best way to reach a settlement.</t>
+  </si>
+  <si>
+    <t>I complained to the airline company to give the representative(s) a hard time.</t>
+  </si>
+  <si>
+    <t>I complained to the airline company to be unpleasant with the representative(s) of the company.</t>
+  </si>
+  <si>
+    <t>I complained to the airline company to make someone from the organization pay for its poor service.</t>
+  </si>
+  <si>
+    <t>I spread negative word-of-mouth about the airline company.</t>
+  </si>
+  <si>
+    <t>I denigrated the airline to my friends</t>
+  </si>
+  <si>
+    <t>When my friends were looking for a ticket, I told them not to buy from the airline.</t>
+  </si>
+  <si>
+    <t>Retaliatory behaviors: vindictive complaining</t>
+  </si>
+  <si>
+    <t>Retaliatory behaviors: negative word-of-mouth</t>
+  </si>
+  <si>
+    <t>I complained to the consumer agency to have it make public the behaviors of the airline.</t>
+  </si>
+  <si>
+    <t>I complained to the consumer agency to have it report my experience to other travelers.</t>
+  </si>
+  <si>
+    <t>I complained to the consumer agency so that it could spread the word about my misadventure.</t>
+  </si>
+  <si>
+    <t>I complained to the consumer agency so that my experience with this airline would be known.</t>
+  </si>
+  <si>
+    <t>Retaliatory behaviors: third-party complaining for publicity</t>
+  </si>
+  <si>
+    <t>Procedural fairness</t>
+  </si>
+  <si>
+    <t>The airline company gave me an opportunity to have a say in the handling of the problem.</t>
+  </si>
+  <si>
+    <t>In the handling of the failures, the airline gave me accurate information.</t>
+  </si>
+  <si>
+    <t>In the handling of the failures, the airline answered my request in a timely manner.</t>
+  </si>
+  <si>
+    <t>In the handling of the failures, the airline was flexible in the way it responded to my concerns.</t>
+  </si>
+  <si>
+    <t>Distributive fairness</t>
+  </si>
+  <si>
+    <t>Overall, the outcomes I received from the airline were fair.</t>
+  </si>
+  <si>
+    <t>Given the time, money, and hassle, I got fair outcomes.</t>
+  </si>
+  <si>
+    <t>I got what I deserved.</t>
+  </si>
+  <si>
+    <t>Firm’s blame</t>
+  </si>
+  <si>
+    <t>The airline was not at all responsible for the failure (1)—... totally responsible for the failure (7).</t>
+  </si>
+  <si>
+    <t>Overall, the service failure was in no way the airline's fault (1)—...completely the airline’s fault (7).</t>
+  </si>
+  <si>
+    <t>To what extent do you blame the airline for what happened? Not at all (1)—completely (7).</t>
+  </si>
+  <si>
+    <t>The employee(s) who interacted with me gave me detailed explanations and relevant advice.</t>
+  </si>
+  <si>
+    <t>The employee(s) who interacted with me treated me with respect.</t>
+  </si>
+  <si>
+    <t>The employee(s) who interacted with me treated me with empathy.</t>
+  </si>
+  <si>
+    <t>Interactional fairness</t>
+  </si>
+  <si>
+    <t>Failure severity</t>
+  </si>
+  <si>
+    <t>The service failures caused me minor problems (1)–major problems (7)</t>
+  </si>
+  <si>
+    <t>The service failures caused me small inconveniences (1)–big inconveniences (7)</t>
+  </si>
+  <si>
+    <t>The service failures caused me minor aggravation (1)–major aggravation (7)</t>
+  </si>
+  <si>
+    <t>I felt cheated.</t>
+  </si>
+  <si>
+    <t>I felt betrayed.</t>
+  </si>
+  <si>
+    <t>I felt lied to.</t>
+  </si>
+  <si>
+    <t>The airline company (did not intend) intended to take advantage of me.</t>
+  </si>
+  <si>
+    <t>The airline company (did not try) tried to abuse me.</t>
+  </si>
+  <si>
+    <t>Perceived betrayal</t>
+  </si>
+  <si>
+    <t>Dissatisfaction</t>
+  </si>
+  <si>
+    <t>Though the service failures, I felt dissatisfied.</t>
+  </si>
+  <si>
+    <t>Though the service failures, I felt displeased.</t>
+  </si>
+  <si>
+    <t>Though the service failures, I felt discontented.</t>
+  </si>
+  <si>
+    <t>Anger</t>
+  </si>
+  <si>
+    <t>Though the service failures, I felt outraged.</t>
+  </si>
+  <si>
+    <t>Though the service failures, I felt resentful.</t>
+  </si>
+  <si>
+    <t>Though the service failures, I felt angry.</t>
+  </si>
+  <si>
+    <t>Relationship quality: trust</t>
+  </si>
+  <si>
+    <t>I felt that the airline company was… Very undependable (1)–very dependable (7) 0.85</t>
+  </si>
+  <si>
+    <t>I felt that the airline company was… Very incompetent (1)–very competent (7) 0.92</t>
+  </si>
+  <si>
+    <t>I felt that the airline company was… Of low integrity (1)–of high integrity (7) 0.91</t>
+  </si>
+  <si>
+    <t>I felt that the airline company was… Very unresponsive to consumers (1)–very responsive consumers (7)</t>
+  </si>
+  <si>
+    <t>Relationship quality: relationship satisfaction</t>
+  </si>
+  <si>
+    <t>I was satisfied with my relationship with the airline.</t>
+  </si>
+  <si>
+    <t>My relationship with the airline was quite good.</t>
+  </si>
+  <si>
+    <t>I was happy with the effort the airline was making towards consumers like me.</t>
+  </si>
+  <si>
+    <t>Relationship quality: commitment</t>
+  </si>
+  <si>
+    <t>I was very committed to my relationship with the airline.</t>
+  </si>
+  <si>
+    <t>The relationship was something I intended to maintain for a long time.</t>
+  </si>
+  <si>
+    <t>I put the efforts into maintaining this relationship for a long time.</t>
+  </si>
+  <si>
+    <t>Construct</t>
+  </si>
   <si>
     <t>Code</t>
   </si>
   <si>
-    <t>Item</t>
-  </si>
-  <si>
-    <t>Construct</t>
-  </si>
-  <si>
-    <t>Perceived Risk</t>
-  </si>
-  <si>
-    <t>Felt Responsibility</t>
-  </si>
-  <si>
-    <t>Acted Responsible</t>
-  </si>
-  <si>
-    <t>PRS1T1</t>
-  </si>
-  <si>
-    <t>PRS1T2</t>
-  </si>
-  <si>
-    <t>PRS2T1</t>
-  </si>
-  <si>
-    <t>PRS2T2</t>
-  </si>
-  <si>
-    <t>PRS3T1</t>
-  </si>
-  <si>
-    <t>PRS3T2</t>
-  </si>
-  <si>
-    <t>PRS4T1</t>
-  </si>
-  <si>
-    <t>PRS4T2</t>
-  </si>
-  <si>
-    <t>FRS1T1</t>
-  </si>
-  <si>
-    <t>FRS1T2</t>
-  </si>
-  <si>
-    <t>FRS2T1</t>
-  </si>
-  <si>
-    <t>FRS2T2</t>
-  </si>
-  <si>
-    <t>FRS3T1</t>
-  </si>
-  <si>
-    <t>FRS3T2</t>
-  </si>
-  <si>
-    <t>FRS4T1</t>
-  </si>
-  <si>
-    <t>FRS4T2</t>
-  </si>
-  <si>
-    <t>ARS1T1</t>
-  </si>
-  <si>
-    <t>ARS1T2</t>
-  </si>
-  <si>
-    <t>ARS2T1</t>
-  </si>
-  <si>
-    <t>ARS2T2</t>
-  </si>
-  <si>
-    <t>ARS3T1</t>
-  </si>
-  <si>
-    <t>ARS3T2</t>
-  </si>
-  <si>
-    <t>ARS4T1</t>
-  </si>
-  <si>
-    <t>ARS4T2</t>
-  </si>
-  <si>
-    <t>This team lead will feel responsible for the outcome.</t>
-  </si>
-  <si>
-    <t>This team lead acted responsibly.</t>
-  </si>
-  <si>
-    <t>How risky do you perceive this alternative?</t>
+    <t>Text original</t>
+  </si>
+  <si>
+    <t>Text adapted</t>
+  </si>
+  <si>
+    <t>Demands for reparation: third-party complaining for dispute resolution</t>
+  </si>
+  <si>
+    <t>Demands for reparation: problem solving complaining</t>
+  </si>
+  <si>
+    <t>DRP1</t>
+  </si>
+  <si>
+    <t>DRP2</t>
+  </si>
+  <si>
+    <t>DRP3</t>
+  </si>
+  <si>
+    <t>DRC1</t>
+  </si>
+  <si>
+    <t>DRC2</t>
+  </si>
+  <si>
+    <t>DRC3</t>
+  </si>
+  <si>
+    <t>RBV1</t>
+  </si>
+  <si>
+    <t>RBV2</t>
+  </si>
+  <si>
+    <t>RBV3</t>
+  </si>
+  <si>
+    <t>RBN1</t>
+  </si>
+  <si>
+    <t>RBN2</t>
+  </si>
+  <si>
+    <t>RBN3</t>
+  </si>
+  <si>
+    <t>RBC1</t>
+  </si>
+  <si>
+    <t>RBC2</t>
+  </si>
+  <si>
+    <t>RBC3</t>
+  </si>
+  <si>
+    <t>RBC4</t>
+  </si>
+  <si>
+    <t>PF1</t>
+  </si>
+  <si>
+    <t>PF2</t>
+  </si>
+  <si>
+    <t>PF3</t>
+  </si>
+  <si>
+    <t>PF4</t>
+  </si>
+  <si>
+    <t>DF1</t>
+  </si>
+  <si>
+    <t>DF2</t>
+  </si>
+  <si>
+    <t>DF3</t>
+  </si>
+  <si>
+    <t>FB1</t>
+  </si>
+  <si>
+    <t>FB2</t>
+  </si>
+  <si>
+    <t>FB3</t>
+  </si>
+  <si>
+    <t>IF1</t>
+  </si>
+  <si>
+    <t>IF2</t>
+  </si>
+  <si>
+    <t>IF3</t>
+  </si>
+  <si>
+    <t>FS1</t>
+  </si>
+  <si>
+    <t>FS2</t>
+  </si>
+  <si>
+    <t>FS3</t>
+  </si>
+  <si>
+    <t>PB1</t>
+  </si>
+  <si>
+    <t>PB2</t>
+  </si>
+  <si>
+    <t>PB3</t>
+  </si>
+  <si>
+    <t>PB4</t>
+  </si>
+  <si>
+    <t>PB5</t>
+  </si>
+  <si>
+    <t>DIS1</t>
+  </si>
+  <si>
+    <t>DIS2</t>
+  </si>
+  <si>
+    <t>DIS3</t>
+  </si>
+  <si>
+    <t>ANG1</t>
+  </si>
+  <si>
+    <t>ANG2</t>
+  </si>
+  <si>
+    <t>ANG3</t>
+  </si>
+  <si>
+    <t>RQT1</t>
+  </si>
+  <si>
+    <t>RQT2</t>
+  </si>
+  <si>
+    <t>RQT3</t>
+  </si>
+  <si>
+    <t>RQT4</t>
+  </si>
+  <si>
+    <t>RQR1</t>
+  </si>
+  <si>
+    <t>RQR2</t>
+  </si>
+  <si>
+    <t>RQR3</t>
+  </si>
+  <si>
+    <t>RQC1</t>
+  </si>
+  <si>
+    <t>RQC2</t>
+  </si>
+  <si>
+    <t>RQC3</t>
+  </si>
+  <si>
+    <t>I will complain to my manager's direct supervisor to constructively discuss the problem.</t>
+  </si>
+  <si>
+    <t>I will complain to my manager's direct supervisor to find an acceptable solution for both parties.</t>
+  </si>
+  <si>
+    <t>I will complain to my manager's direct supervisor to work with my manager on solving the problem.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I will complain to HR to ask about the right approach to deal with the manager. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I will complain to HR to solicit their expertise about my latest issue with my manager. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I will complain to HR so they could advise me on the best way to reach a settlement. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I will complain to my manager's direct supervisor togive my manager a hard time. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I will complain to my manager's direct supervisor to be unpleasant with my manager. </t>
+  </si>
+  <si>
+    <t>I will complain to my manager's direct supervisor to make someone pay for my managers poor service.</t>
+  </si>
+  <si>
+    <t>I will spread negative word-of-mouth about my manager.</t>
+  </si>
+  <si>
+    <t>I will denigrate the manager to my friends.</t>
+  </si>
+  <si>
+    <t>I will complain to HR to have it make public the behaviours of the manager.</t>
+  </si>
+  <si>
+    <t>I will complain to HR to have it report my experience to other managers.</t>
+  </si>
+  <si>
+    <t>I will complain to HR so that it could spread the word about my negative experience.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I will complain to HR so that my experience with this manager will be known. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Overall, the outcomes I received from my manager were fair. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I got what I deserved. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Given the hassle, I got fair outcomes. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The manager was not at all responsible for the distribution of bonus points (1) - … totally responsible for the distribution of bonus points (7). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Overall, the distribution of bonus points was in no way the managers fault (1) - … completely the managers fault (7). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">To what extend to you blame the manaer for what happened? Not at all (1) - completely (7). </t>
+  </si>
+  <si>
+    <t>I felt that my manager was … Very undependable (1) - very dependable (7).</t>
+  </si>
+  <si>
+    <t>I felt that my manager was  … Very incompetent (1) - very competent (7)</t>
+  </si>
+  <si>
+    <t>I felt that my manager was … Of low integrity (1) - Of high integrity (7).</t>
+  </si>
+  <si>
+    <t>Does your (outcome) reflect the effort you have put into your work?</t>
+  </si>
+  <si>
+    <t>Is your (outcome) appropriate for the work you have completed?</t>
+  </si>
+  <si>
+    <t>Does your (outcome) reflect what you have contributed to the organization?</t>
+  </si>
+  <si>
+    <t>Is your (outcome) justified, given your performance?</t>
+  </si>
+  <si>
+    <t>Distributive Fairness Leventhal (1976)</t>
+  </si>
+  <si>
+    <t>Does your bonus reflect the effort you have put into your work?</t>
+  </si>
+  <si>
+    <t>Is your bonus appropriate for the work you have completed?</t>
+  </si>
+  <si>
+    <t>Does your bonus reflect what you have contributed to the accomplishment of the task by the team?</t>
+  </si>
+  <si>
+    <t>Is your bonus justified, given your performance?</t>
+  </si>
+  <si>
+    <t>The way the bonus points were distributed caused me minor problems (1)-major problems (7).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The way the bonus points were distributed caused me small inconveniences (1) - big inconveniences (7). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The way the bonus points were distributed caused me minor aggravation (1) - major aggravation (7). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">During the interaction in which I was informed about the distribution of bonus points, I was given detailed explanations and relevant advice. </t>
+  </si>
+  <si>
+    <t>During the interaction in which I was informed about the distribution of bonus points, I was treated with respect.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">During the interacting in which I was informed about the distribution of bonus points, I was treated with empathy. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The manager (did not intend) to take advantage of me. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The manager (did not try) tried to abuse me. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">As of the distribution of bonus points, I felt dissatisfied. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">As of the distribution of bonus points, I felt outraged. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">As of the distribution of bonus points, I felt discontented. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">As of the distribution of bonus points, I felt resentful. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">As of the distribution of bonus points, I felt displeased. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">As of the distribution of bonus points, I felt angry. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -164,13 +573,38 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -185,13 +619,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -207,7 +645,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -502,231 +940,685 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ECDEF67-3C2D-3F4F-AB2D-7998A134E0FC}">
-  <dimension ref="A1:C25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C86F1BDF-E677-A845-9706-F924D1B4E8FF}">
+  <dimension ref="A1:H62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="17.5" customWidth="1"/>
+    <col min="1" max="1" width="20.8125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.8125" customWidth="1"/>
+    <col min="3" max="3" width="85.8125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="B3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="B4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="D4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="B6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="B7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="B9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="B10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="B12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="B13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="B15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="B16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="B17" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="B19" t="s">
+        <v>90</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="B20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="B21" t="s">
+        <v>92</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A22" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" t="s">
+        <v>96</v>
+      </c>
+      <c r="C25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="B26" t="s">
+        <v>97</v>
+      </c>
+      <c r="C26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="B27" t="s">
+        <v>98</v>
+      </c>
+      <c r="C27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" t="s">
+        <v>99</v>
+      </c>
+      <c r="C28" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" t="s">
-        <v>31</v>
+      <c r="D28" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="B29" t="s">
+        <v>100</v>
+      </c>
+      <c r="C29" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="B30" t="s">
+        <v>101</v>
+      </c>
+      <c r="C30" t="s">
+        <v>34</v>
+      </c>
+      <c r="D30" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A31" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" t="s">
+        <v>102</v>
+      </c>
+      <c r="C31" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="B32" t="s">
+        <v>103</v>
+      </c>
+      <c r="C32" t="s">
+        <v>38</v>
+      </c>
+      <c r="D32" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="B33" t="s">
+        <v>104</v>
+      </c>
+      <c r="C33" t="s">
+        <v>39</v>
+      </c>
+      <c r="D33" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A34" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34" t="s">
+        <v>105</v>
+      </c>
+      <c r="C34" t="s">
+        <v>40</v>
+      </c>
+      <c r="D34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="B35" t="s">
+        <v>106</v>
+      </c>
+      <c r="C35" t="s">
+        <v>41</v>
+      </c>
+      <c r="D35" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="B36" t="s">
+        <v>107</v>
+      </c>
+      <c r="C36" t="s">
+        <v>42</v>
+      </c>
+      <c r="D36" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="B37" t="s">
+        <v>108</v>
+      </c>
+      <c r="C37" t="s">
+        <v>43</v>
+      </c>
+      <c r="D37" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="B38" t="s">
+        <v>109</v>
+      </c>
+      <c r="C38" t="s">
+        <v>44</v>
+      </c>
+      <c r="D38" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A39" t="s">
+        <v>46</v>
+      </c>
+      <c r="B39" t="s">
+        <v>110</v>
+      </c>
+      <c r="C39" t="s">
+        <v>47</v>
+      </c>
+      <c r="D39" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="B40" t="s">
+        <v>111</v>
+      </c>
+      <c r="C40" t="s">
+        <v>48</v>
+      </c>
+      <c r="D40" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="B41" t="s">
+        <v>112</v>
+      </c>
+      <c r="C41" t="s">
+        <v>49</v>
+      </c>
+      <c r="D41" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A42" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42" t="s">
+        <v>113</v>
+      </c>
+      <c r="C42" t="s">
+        <v>51</v>
+      </c>
+      <c r="D42" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="B43" t="s">
+        <v>114</v>
+      </c>
+      <c r="C43" t="s">
+        <v>52</v>
+      </c>
+      <c r="D43" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="B44" t="s">
+        <v>115</v>
+      </c>
+      <c r="C44" t="s">
+        <v>53</v>
+      </c>
+      <c r="D44" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A45" t="s">
+        <v>54</v>
+      </c>
+      <c r="B45" t="s">
+        <v>116</v>
+      </c>
+      <c r="C45" t="s">
+        <v>55</v>
+      </c>
+      <c r="D45" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="B46" t="s">
+        <v>117</v>
+      </c>
+      <c r="C46" t="s">
+        <v>56</v>
+      </c>
+      <c r="D46" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="B47" t="s">
+        <v>118</v>
+      </c>
+      <c r="C47" t="s">
+        <v>57</v>
+      </c>
+      <c r="D47" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="B48" t="s">
+        <v>119</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A49" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A50" s="4"/>
+      <c r="B50" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A51" s="4"/>
+      <c r="B51" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A52" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A53" s="4"/>
+      <c r="B53" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A54" s="4"/>
+      <c r="B54" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A59" t="s">
+        <v>154</v>
+      </c>
+      <c r="C59" t="s">
+        <v>150</v>
+      </c>
+      <c r="D59" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="C60" t="s">
+        <v>151</v>
+      </c>
+      <c r="D60" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="C61" t="s">
+        <v>152</v>
+      </c>
+      <c r="D61" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="C62" t="s">
+        <v>153</v>
+      </c>
+      <c r="D62" t="s">
+        <v>158</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/references/questionnaire.xlsx
+++ b/references/questionnaire.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kloepper\Desktop\ECIS2024\Studie mit Uwe\Material\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{811D820B-5FEE-4412-9AE7-FD097ED6EF4D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBF1E1EB-B6E5-4132-84E9-8A41B75AF437}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7755" xr2:uid="{D2DBED8B-F273-5F4E-8D6A-40C4D6D3B0F3}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="177">
   <si>
     <t>I complained to the airline company to constructively discuss the problem.</t>
   </si>
@@ -405,66 +405,15 @@
     <t>RQC3</t>
   </si>
   <si>
-    <t>I will complain to my manager's direct supervisor to constructively discuss the problem.</t>
-  </si>
-  <si>
-    <t>I will complain to my manager's direct supervisor to find an acceptable solution for both parties.</t>
-  </si>
-  <si>
-    <t>I will complain to my manager's direct supervisor to work with my manager on solving the problem.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I will complain to HR to ask about the right approach to deal with the manager. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">I will complain to HR to solicit their expertise about my latest issue with my manager. </t>
-  </si>
-  <si>
     <t xml:space="preserve">I will complain to HR so they could advise me on the best way to reach a settlement. </t>
   </si>
   <si>
-    <t xml:space="preserve">I will complain to my manager's direct supervisor togive my manager a hard time. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">I will complain to my manager's direct supervisor to be unpleasant with my manager. </t>
-  </si>
-  <si>
-    <t>I will complain to my manager's direct supervisor to make someone pay for my managers poor service.</t>
-  </si>
-  <si>
-    <t>I will spread negative word-of-mouth about my manager.</t>
-  </si>
-  <si>
-    <t>I will denigrate the manager to my friends.</t>
-  </si>
-  <si>
-    <t>I will complain to HR to have it make public the behaviours of the manager.</t>
-  </si>
-  <si>
-    <t>I will complain to HR to have it report my experience to other managers.</t>
-  </si>
-  <si>
     <t>I will complain to HR so that it could spread the word about my negative experience.</t>
   </si>
   <si>
-    <t xml:space="preserve">I will complain to HR so that my experience with this manager will be known. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Overall, the outcomes I received from my manager were fair. </t>
-  </si>
-  <si>
     <t xml:space="preserve">I got what I deserved. </t>
   </si>
   <si>
-    <t xml:space="preserve">Given the hassle, I got fair outcomes. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The manager was not at all responsible for the distribution of bonus points (1) - … totally responsible for the distribution of bonus points (7). </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Overall, the distribution of bonus points was in no way the managers fault (1) - … completely the managers fault (7). </t>
-  </si>
-  <si>
     <t xml:space="preserve">To what extend to you blame the manaer for what happened? Not at all (1) - completely (7). </t>
   </si>
   <si>
@@ -492,18 +441,6 @@
     <t>Distributive Fairness Leventhal (1976)</t>
   </si>
   <si>
-    <t>Does your bonus reflect the effort you have put into your work?</t>
-  </si>
-  <si>
-    <t>Is your bonus appropriate for the work you have completed?</t>
-  </si>
-  <si>
-    <t>Does your bonus reflect what you have contributed to the accomplishment of the task by the team?</t>
-  </si>
-  <si>
-    <t>Is your bonus justified, given your performance?</t>
-  </si>
-  <si>
     <t>The way the bonus points were distributed caused me minor problems (1)-major problems (7).</t>
   </si>
   <si>
@@ -513,37 +450,198 @@
     <t xml:space="preserve">The way the bonus points were distributed caused me minor aggravation (1) - major aggravation (7). </t>
   </si>
   <si>
-    <t xml:space="preserve">During the interaction in which I was informed about the distribution of bonus points, I was given detailed explanations and relevant advice. </t>
-  </si>
-  <si>
-    <t>During the interaction in which I was informed about the distribution of bonus points, I was treated with respect.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">During the interacting in which I was informed about the distribution of bonus points, I was treated with empathy. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The manager (did not intend) to take advantage of me. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The manager (did not try) tried to abuse me. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">As of the distribution of bonus points, I felt dissatisfied. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">As of the distribution of bonus points, I felt outraged. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">As of the distribution of bonus points, I felt discontented. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">As of the distribution of bonus points, I felt resentful. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">As of the distribution of bonus points, I felt displeased. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">As of the distribution of bonus points, I felt angry. </t>
+    <t xml:space="preserve">I will complain to HR to ask about the right approach to deal with my team lead. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I will complain to HR to solicit their expertise about my latest issue with my teamlead. </t>
+  </si>
+  <si>
+    <t>I will spread negative word-of-mouth about my department.</t>
+  </si>
+  <si>
+    <t>I will complain to my department manager to constructively discuss the problem.</t>
+  </si>
+  <si>
+    <t>I will complain to my department manager to find an acceptable solution for both parties.</t>
+  </si>
+  <si>
+    <t>I will complain to my department manager to work with my team lead on solving the problem.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I will complain to my department manager to give my team lead a hard time. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I will complain to my department manager to be unpleasant with my team lead. </t>
+  </si>
+  <si>
+    <t>I will complain to my department manager to make someone pay for my team lead's poor judgement.</t>
+  </si>
+  <si>
+    <t>When my friends were looking for a job, I would tell them not to apply to my department.</t>
+  </si>
+  <si>
+    <t>I will complain to HR to have it make public the behaviours of the team lead.</t>
+  </si>
+  <si>
+    <t>I will complain to HR to have it report my experience to other employees.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I will complain to HR so that my experience with my team lead will be known. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Overall, the outcomes I received from my team lead were fair. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Given the time, effort, and hassle, I got fair outcomes. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The team lead was responsible for the way the bonus points were distributed. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Overall, the way the bonus points were distributed completely the managers fault (7). </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>team lead / PA system</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> who interacted with me treated me with respect.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>team</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lead / PA system</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> who interacted with me gave me detailed explanations and relevant advice.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>team lead / PA system</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> who interacted with me treated me with empathy.</t>
+    </r>
+  </si>
+  <si>
+    <t>I feel cheated.</t>
+  </si>
+  <si>
+    <t>I feel betrayed.</t>
+  </si>
+  <si>
+    <t>I feel lied to.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The team lead did not intend to take advantage of me. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The team lead did not try to abuse me. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Given my evaluation, I feel angry. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Given my evaluation, I feel satisfied. (reversed) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Given my evaluation, I feel pleased. (reversed) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Given my evaluation, I feel discontented. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Given my evaluation, I feel outraged. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Given my evaluation, I feel resentful. </t>
+  </si>
+  <si>
+    <t>My evauation reflects the effort I have put into my work.</t>
+  </si>
+  <si>
+    <t>My evaluation is appropriate for the work I have completed.</t>
+  </si>
+  <si>
+    <t>My evaluation reflects what I have contributed to the accomplishment of the project by the team.</t>
+  </si>
+  <si>
+    <t>My evaluation is justified, given my performance.</t>
+  </si>
+  <si>
+    <t>I will denigrate the department (manager? Team lead? Company?) to my friends.</t>
   </si>
 </sst>
 </file>
@@ -587,7 +685,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -606,6 +704,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -619,14 +723,35 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -941,412 +1066,428 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C86F1BDF-E677-A845-9706-F924D1B4E8FF}">
-  <dimension ref="A1:H62"/>
+  <dimension ref="A1:H58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="20.8125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.8125" customWidth="1"/>
-    <col min="3" max="3" width="85.8125" customWidth="1"/>
+    <col min="3" max="4" width="40" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
         <v>67</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="5" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="1:6" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>72</v>
       </c>
       <c r="B2" t="s">
         <v>73</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="D2" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" ht="47.25" x14ac:dyDescent="0.5">
       <c r="B3" t="s">
         <v>74</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="D3" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="31.5" x14ac:dyDescent="0.5">
       <c r="B4" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="D4" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="47.25" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>71</v>
       </c>
       <c r="B5" t="s">
         <v>76</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D5" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="D5" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="31.5" x14ac:dyDescent="0.5">
       <c r="B6" t="s">
         <v>77</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D6" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="D6" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="126" x14ac:dyDescent="0.5">
       <c r="B7" t="s">
         <v>78</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D7" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="D7" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>12</v>
       </c>
       <c r="B8" t="s">
         <v>79</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D8" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="D8" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="47.25" x14ac:dyDescent="0.5">
       <c r="B9" t="s">
         <v>80</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D9" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="D9" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="47.25" x14ac:dyDescent="0.5">
       <c r="B10" t="s">
         <v>81</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D10" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="D10" s="6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>13</v>
       </c>
       <c r="B11" t="s">
         <v>82</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D11" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="D11" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="31.5" x14ac:dyDescent="0.5">
       <c r="B12" t="s">
         <v>83</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D12" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="D12" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="31.5" x14ac:dyDescent="0.5">
       <c r="B13" t="s">
         <v>84</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="D13" s="6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>18</v>
       </c>
       <c r="B14" t="s">
         <v>85</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D14" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="D14" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="31.5" x14ac:dyDescent="0.5">
       <c r="B15" t="s">
         <v>86</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D15" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="D15" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="126" x14ac:dyDescent="0.5">
       <c r="B16" t="s">
         <v>87</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D16" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="D16" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="47.25" x14ac:dyDescent="0.5">
       <c r="B17" t="s">
         <v>88</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D17" t="s">
-        <v>140</v>
+      <c r="D17" s="6" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A18" t="s">
+      <c r="A18" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="11" t="s">
         <v>20</v>
       </c>
+      <c r="D18" s="11"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="B19" t="s">
+      <c r="A19" s="10"/>
+      <c r="B19" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="11" t="s">
         <v>21</v>
       </c>
+      <c r="D19" s="11"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="B20" t="s">
+      <c r="A20" s="10"/>
+      <c r="B20" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="11" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="B21" t="s">
+      <c r="D20" s="11"/>
+    </row>
+    <row r="21" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A21" s="10"/>
+      <c r="B21" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="11" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A22" s="6" t="s">
+      <c r="D21" s="11"/>
+    </row>
+    <row r="22" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A22" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6" t="s">
+      <c r="D22" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+    </row>
+    <row r="23" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6" t="s">
+      <c r="D23" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+    </row>
+    <row r="24" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A25" t="s">
+      <c r="D24" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+    </row>
+    <row r="25" spans="1:8" ht="47.25" x14ac:dyDescent="0.5">
+      <c r="A25" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D25" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="B26" t="s">
+      <c r="D25" s="11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="47.25" x14ac:dyDescent="0.5">
+      <c r="A26" s="10"/>
+      <c r="B26" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D26" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="B27" t="s">
+      <c r="D26" s="11" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="141.75" x14ac:dyDescent="0.5">
+      <c r="A27" s="10"/>
+      <c r="B27" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D27" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="D27" s="11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="47.25" x14ac:dyDescent="0.5">
       <c r="A28" t="s">
         <v>35</v>
       </c>
       <c r="B28" t="s">
         <v>99</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D28" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="D28" s="6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
       <c r="B29" t="s">
         <v>100</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D29" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="D29" s="6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
       <c r="B30" t="s">
         <v>101</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D30" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A31" t="s">
+      <c r="D30" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="157.5" x14ac:dyDescent="0.5">
+      <c r="A31" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D31" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="B32" t="s">
+      <c r="D31" s="11" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="157.5" x14ac:dyDescent="0.5">
+      <c r="A32" s="10"/>
+      <c r="B32" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D32" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="B33" t="s">
+      <c r="D32" s="11" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="157.5" x14ac:dyDescent="0.5">
+      <c r="A33" s="10"/>
+      <c r="B33" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D33" t="s">
-        <v>161</v>
+      <c r="D33" s="11" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.5">
@@ -1356,264 +1497,274 @@
       <c r="B34" t="s">
         <v>105</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D34" t="s">
-        <v>40</v>
+      <c r="D34" s="6" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.5">
       <c r="B35" t="s">
         <v>106</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D35" t="s">
-        <v>41</v>
+      <c r="D35" s="6" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.5">
       <c r="B36" t="s">
         <v>107</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D36" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="D36" s="6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="31.5" x14ac:dyDescent="0.5">
       <c r="B37" t="s">
         <v>108</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D37" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="D37" s="6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="31.5" x14ac:dyDescent="0.5">
       <c r="B38" t="s">
         <v>109</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D38" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="D38" s="6" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A39" t="s">
         <v>46</v>
       </c>
       <c r="B39" t="s">
         <v>110</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="6" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:4" ht="31.5" x14ac:dyDescent="0.5">
       <c r="B40" t="s">
         <v>111</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D40" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="D40" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="31.5" x14ac:dyDescent="0.5">
       <c r="B41" t="s">
         <v>112</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="6" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:4" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A42" t="s">
         <v>50</v>
       </c>
       <c r="B42" t="s">
         <v>113</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D42" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="D42" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="31.5" x14ac:dyDescent="0.5">
       <c r="B43" t="s">
         <v>114</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D43" t="s">
-        <v>170</v>
+      <c r="D43" s="6" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.5">
       <c r="B44" t="s">
         <v>115</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="110.25" x14ac:dyDescent="0.5">
+      <c r="A45" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="110.25" x14ac:dyDescent="0.5">
+      <c r="A46" s="10"/>
+      <c r="B46" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="94.5" x14ac:dyDescent="0.5">
+      <c r="A47" s="10"/>
+      <c r="B47" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A48" s="10"/>
+      <c r="B48" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D48" s="11"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A49" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D49" s="11"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A50" s="12"/>
+      <c r="B50" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D50" s="11"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A51" s="12"/>
+      <c r="B51" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C51" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D51" s="11"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A52" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B52" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="C52" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D52" s="11"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A53" s="12"/>
+      <c r="B53" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="C53" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D53" s="11"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A54" s="12"/>
+      <c r="B54" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D54" s="11"/>
+    </row>
+    <row r="55" spans="1:4" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A55" t="s">
+        <v>137</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="D55" s="6" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A45" t="s">
-        <v>54</v>
-      </c>
-      <c r="B45" t="s">
-        <v>116</v>
-      </c>
-      <c r="C45" t="s">
-        <v>55</v>
-      </c>
-      <c r="D45" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="B46" t="s">
-        <v>117</v>
-      </c>
-      <c r="C46" t="s">
-        <v>56</v>
-      </c>
-      <c r="D46" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="B47" t="s">
-        <v>118</v>
-      </c>
-      <c r="C47" t="s">
-        <v>57</v>
-      </c>
-      <c r="D47" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="B48" t="s">
-        <v>119</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A49" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A50" s="4"/>
-      <c r="B50" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A51" s="4"/>
-      <c r="B51" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A52" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A53" s="4"/>
-      <c r="B53" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A54" s="4"/>
-      <c r="B54" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A59" t="s">
-        <v>154</v>
-      </c>
-      <c r="C59" t="s">
-        <v>150</v>
-      </c>
-      <c r="D59" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="C60" t="s">
-        <v>151</v>
-      </c>
-      <c r="D60" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="C61" t="s">
-        <v>152</v>
-      </c>
-      <c r="D61" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="C62" t="s">
-        <v>153</v>
-      </c>
-      <c r="D62" t="s">
-        <v>158</v>
+    <row r="56" spans="1:4" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="C56" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="47.25" x14ac:dyDescent="0.5">
+      <c r="C57" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="C58" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>175</v>
       </c>
     </row>
   </sheetData>
